--- a/tests/$data_for_test/planning_errors.xlsx
+++ b/tests/$data_for_test/planning_errors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\photrix2023\tests\$data_for_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CDED2D-A7E7-4F36-955A-FC37E3625A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383A2153-9E21-4638-BF37-A4E82FD458D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16290" yWindow="1305" windowWidth="15150" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25230" yWindow="1305" windowWidth="21390" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>CHILL -35</t>
   </si>
@@ -128,9 +128,6 @@
     <t xml:space="preserve">IMAGE MP_858 BB=720s(2) @ 08h 09m 48.5774s  +27° 19' 58.464" </t>
   </si>
   <si>
-    <t xml:space="preserve">IMAGE MP_858 BB=720s(100) @ 08h 09m 48.5774s  +27° 19' 58.464" </t>
-  </si>
-  <si>
     <t xml:space="preserve">IMAGE MP_12746 BB=900s(4) @ 01h 22m 30.8099s  +14° 29' 40.308" </t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>QUITAT 11:45</t>
   </si>
   <si>
-    <t xml:space="preserve">IMAGE HIP_111086 R=100(2) @ 22h 30m 17.3506s  -14° 35' 08.644" </t>
-  </si>
-  <si>
     <t>QUITAT 10:45</t>
   </si>
   <si>
@@ -171,6 +165,39 @@
   </si>
   <si>
     <t>Plan E ; NO ACTION DIRECTIVE (other than WAITUNTIL and comment).</t>
+  </si>
+  <si>
+    <t>; Plan has 2 warning conditions: (1) WAITUNTIL gap = 37 min; (2) no AFINTERVAL or AUTOFOCUS</t>
+  </si>
+  <si>
+    <t>IMAGE HIP_111086 R=100(2) @ 22h 30m 17.3506s  -14° 35' 08.644"</t>
+  </si>
+  <si>
+    <t>; HIP_111086 has 1 warning condition: too close to moon (1 degree sep)</t>
+  </si>
+  <si>
+    <t>; Plan has 1 warning condition: has both AFINTERVAL and AUTOFOCUS</t>
+  </si>
+  <si>
+    <t>; Plan has 1 warning condition: WAITUNTIL gap of 14 minutes.</t>
+  </si>
+  <si>
+    <t>; Plan has 1 error condition: chains to itself</t>
+  </si>
+  <si>
+    <t>; Plan also has 1 warning condition: no action directives (other than WAITUNTIL or comments).</t>
+  </si>
+  <si>
+    <t>; MP_858 has bad Declination.</t>
+  </si>
+  <si>
+    <t>IMAGE MP_858 BB=720s(100) @ 08h 09m 48.5774s  +37° 19' 58.464"</t>
+  </si>
+  <si>
+    <t>; MP_3166 has bad RA.</t>
+  </si>
+  <si>
+    <t>IMAGE MP_3166 BB=420s(1) @ 04h 24m 56.9516s  +20° 55' 06.970"</t>
   </si>
 </sst>
 </file>
@@ -1351,11 +1378,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F97"/>
+  <dimension ref="A2:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1426,12 +1453,12 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1464,178 +1491,188 @@
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="35" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -1660,110 +1697,140 @@
         <v>31</v>
       </c>
     </row>
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>21</v>
-      </c>
-    </row>
+    <row r="73" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>32</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>46</v>
-      </c>
-    </row>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>41</v>
-      </c>
-    </row>
     <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>3</v>
-      </c>
-    </row>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>2</v>
       </c>
     </row>
